--- a/team_specific_matrix/Central Ark._A.xlsx
+++ b/team_specific_matrix/Central Ark._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="C2">
-        <v>0.5739130434782609</v>
+        <v>0.5659722222222222</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01304347826086956</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1434782608695652</v>
+        <v>0.1493055555555556</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06956521739130435</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02083333333333333</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C3">
-        <v>0.03472222222222222</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02083333333333333</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7361111111111112</v>
+        <v>0.7062146892655368</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1875</v>
+        <v>0.2203389830508475</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7878787878787878</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05789473684210526</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01052631578947368</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E6">
-        <v>0.005263157894736842</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="F6">
-        <v>0.08947368421052632</v>
+        <v>0.0811965811965812</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2368421052631579</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1157894736842105</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="R6">
-        <v>0.04736842105263158</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S6">
-        <v>0.4368421052631579</v>
+        <v>0.4145299145299146</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05357142857142857</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02976190476190476</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F7">
-        <v>0.05952380952380952</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1488095238095238</v>
+        <v>0.1317073170731707</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01785714285714286</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.119047619047619</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="R7">
-        <v>0.05952380952380952</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="S7">
-        <v>0.5119047619047619</v>
+        <v>0.5073170731707317</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09523809523809523</v>
+        <v>0.08921161825726141</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02255639097744361</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="E8">
-        <v>0.002506265664160401</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="F8">
-        <v>0.05764411027568922</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1177944862155388</v>
+        <v>0.1244813278008299</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03007518796992481</v>
+        <v>0.02904564315352697</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2105263157894737</v>
+        <v>0.2074688796680498</v>
       </c>
       <c r="R8">
-        <v>0.09774436090225563</v>
+        <v>0.09336099585062241</v>
       </c>
       <c r="S8">
-        <v>0.3659147869674185</v>
+        <v>0.3672199170124482</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1095890410958904</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0091324200913242</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="E9">
-        <v>0.0091324200913242</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="F9">
-        <v>0.0319634703196347</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0958904109589041</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0228310502283105</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1780821917808219</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.091324200913242</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S9">
-        <v>0.4520547945205479</v>
+        <v>0.4703703703703704</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08818011257035648</v>
+        <v>0.09368191721132897</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0150093808630394</v>
+        <v>0.01742919389978214</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06941838649155722</v>
+        <v>0.06681190994916485</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1285178236397748</v>
+        <v>0.1336238198983297</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01594746716697936</v>
+        <v>0.01597676107480029</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1923076923076923</v>
+        <v>0.1902687000726216</v>
       </c>
       <c r="R10">
-        <v>0.09380863039399624</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="S10">
-        <v>0.3968105065666041</v>
+        <v>0.3907044299201162</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1166077738515901</v>
+        <v>0.1220238095238095</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07420494699646643</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K11">
-        <v>0.1872791519434629</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="L11">
-        <v>0.5971731448763251</v>
+        <v>0.5982142857142857</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02473498233215548</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7261904761904762</v>
+        <v>0.73</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1964285714285714</v>
+        <v>0.19</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.005952380952380952</v>
+        <v>0.005</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07142857142857142</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.72</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.12</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02538071065989848</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1624365482233502</v>
+        <v>0.1747967479674797</v>
       </c>
       <c r="I15">
-        <v>0.07106598984771574</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="J15">
-        <v>0.350253807106599</v>
+        <v>0.3292682926829268</v>
       </c>
       <c r="K15">
-        <v>0.05583756345177665</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005076142131979695</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05076142131979695</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2791878172588833</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02547770700636943</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1847133757961783</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="I16">
-        <v>0.1273885350318471</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="J16">
-        <v>0.3949044585987261</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="K16">
-        <v>0.07643312101910828</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006369426751592357</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="N16">
-        <v>0.006369426751592357</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="O16">
-        <v>0.04458598726114649</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1337579617834395</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0237467018469657</v>
+        <v>0.02114164904862579</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1741424802110818</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="I17">
-        <v>0.1055408970976253</v>
+        <v>0.105708245243129</v>
       </c>
       <c r="J17">
-        <v>0.4010554089709762</v>
+        <v>0.4207188160676533</v>
       </c>
       <c r="K17">
-        <v>0.09762532981530343</v>
+        <v>0.09513742071881606</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01319261213720317</v>
+        <v>0.01691331923890063</v>
       </c>
       <c r="N17">
-        <v>0.002638522427440633</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="O17">
-        <v>0.0712401055408971</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1108179419525066</v>
+        <v>0.1099365750528541</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0111731843575419</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1731843575418995</v>
+        <v>0.1688888888888889</v>
       </c>
       <c r="I18">
-        <v>0.1452513966480447</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="J18">
-        <v>0.4301675977653631</v>
+        <v>0.4488888888888889</v>
       </c>
       <c r="K18">
-        <v>0.0670391061452514</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0111731843575419</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05027932960893855</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.111731843575419</v>
+        <v>0.1022222222222222</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01837928153717627</v>
+        <v>0.01753202966958867</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2071846282372598</v>
+        <v>0.2016183412002697</v>
       </c>
       <c r="I19">
-        <v>0.100250626566416</v>
+        <v>0.09912339851652056</v>
       </c>
       <c r="J19">
-        <v>0.3216374269005848</v>
+        <v>0.3432231962238705</v>
       </c>
       <c r="K19">
-        <v>0.1286549707602339</v>
+        <v>0.1200269723533378</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01503759398496241</v>
+        <v>0.01618341200269724</v>
       </c>
       <c r="N19">
-        <v>0.000835421888053467</v>
+        <v>0.0006743088334457181</v>
       </c>
       <c r="O19">
-        <v>0.06432748538011696</v>
+        <v>0.06540795684423466</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1436925647451963</v>
+        <v>0.1362103843560351</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Central Ark._A.xlsx
+++ b/team_specific_matrix/Central Ark._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2013888888888889</v>
+        <v>0.1980830670926517</v>
       </c>
       <c r="C2">
-        <v>0.5659722222222222</v>
+        <v>0.5782747603833865</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01388888888888889</v>
+        <v>0.01277955271565495</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1493055555555556</v>
+        <v>0.1437699680511182</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06944444444444445</v>
+        <v>0.0670926517571885</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01694915254237288</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C3">
-        <v>0.03954802259887006</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01694915254237288</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7062146892655368</v>
+        <v>0.7128205128205128</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2203389830508475</v>
+        <v>0.2102564102564103</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7380952380952381</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2380952380952381</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04700854700854701</v>
+        <v>0.04417670682730924</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008547008547008548</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="E6">
-        <v>0.004273504273504274</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="F6">
-        <v>0.0811965811965812</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2478632478632479</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.141025641025641</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.05622489959839357</v>
       </c>
       <c r="S6">
-        <v>0.4145299145299146</v>
+        <v>0.4257028112449799</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05853658536585366</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02439024390243903</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="E7">
-        <v>0.004878048780487805</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="F7">
-        <v>0.05853658536585366</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1317073170731707</v>
+        <v>0.1359649122807018</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01951219512195122</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1170731707317073</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="R7">
-        <v>0.07804878048780488</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="S7">
-        <v>0.5073170731707317</v>
+        <v>0.5043859649122807</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08921161825726141</v>
+        <v>0.09320388349514563</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02074688796680498</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E8">
-        <v>0.002074688796680498</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="F8">
-        <v>0.06639004149377593</v>
+        <v>0.06407766990291262</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1244813278008299</v>
+        <v>0.1203883495145631</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02904564315352697</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2074688796680498</v>
+        <v>0.2097087378640777</v>
       </c>
       <c r="R8">
-        <v>0.09336099585062241</v>
+        <v>0.09320388349514563</v>
       </c>
       <c r="S8">
-        <v>0.3672199170124482</v>
+        <v>0.3689320388349515</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.1038062283737024</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007407407407407408</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="E9">
-        <v>0.007407407407407408</v>
+        <v>0.01038062283737024</v>
       </c>
       <c r="F9">
-        <v>0.02962962962962963</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1037037037037037</v>
+        <v>0.1107266435986159</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02592592592592593</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1660899653979239</v>
       </c>
       <c r="R9">
-        <v>0.08888888888888889</v>
+        <v>0.08996539792387544</v>
       </c>
       <c r="S9">
-        <v>0.4703703703703704</v>
+        <v>0.4567474048442907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09368191721132897</v>
+        <v>0.09582477754962354</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01742919389978214</v>
+        <v>0.01779603011635866</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06681190994916485</v>
+        <v>0.06639288158795345</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1336238198983297</v>
+        <v>0.1286789869952088</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01597676107480029</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1902687000726216</v>
+        <v>0.1923340177960301</v>
       </c>
       <c r="R10">
-        <v>0.0915032679738562</v>
+        <v>0.09308692676249145</v>
       </c>
       <c r="S10">
-        <v>0.3907044299201162</v>
+        <v>0.3894592744695414</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1220238095238095</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07142857142857142</v>
+        <v>0.07123287671232877</v>
       </c>
       <c r="K11">
-        <v>0.1845238095238095</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="L11">
-        <v>0.5982142857142857</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02380952380952381</v>
+        <v>0.02465753424657534</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.73</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.19</v>
+        <v>0.182648401826484</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.005</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.075</v>
+        <v>0.0730593607305936</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6857142857142857</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1142857142857143</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02032520325203252</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1747967479674797</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="I15">
-        <v>0.08536585365853659</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="J15">
-        <v>0.3292682926829268</v>
+        <v>0.3192307692307692</v>
       </c>
       <c r="K15">
-        <v>0.04878048780487805</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008130081300813009</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06504065040650407</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2682926829268293</v>
+        <v>0.2807692307692308</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02105263157894737</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1684210526315789</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="I16">
-        <v>0.1210526315789474</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="J16">
-        <v>0.4052631578947368</v>
+        <v>0.3990384615384616</v>
       </c>
       <c r="K16">
-        <v>0.09473684210526316</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005263157894736842</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="N16">
-        <v>0.005263157894736842</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O16">
-        <v>0.04736842105263158</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.131578947368421</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02114164904862579</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1627906976744186</v>
+        <v>0.1600790513833992</v>
       </c>
       <c r="I17">
-        <v>0.105708245243129</v>
+        <v>0.1067193675889328</v>
       </c>
       <c r="J17">
-        <v>0.4207188160676533</v>
+        <v>0.41699604743083</v>
       </c>
       <c r="K17">
-        <v>0.09513742071881606</v>
+        <v>0.09881422924901186</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01691331923890063</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="N17">
-        <v>0.002114164904862579</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="O17">
-        <v>0.06553911205073996</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1099365750528541</v>
+        <v>0.1126482213438735</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008888888888888889</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1688888888888889</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="I18">
-        <v>0.1377777777777778</v>
+        <v>0.1369294605809129</v>
       </c>
       <c r="J18">
-        <v>0.4488888888888889</v>
+        <v>0.4481327800829876</v>
       </c>
       <c r="K18">
-        <v>0.07111111111111111</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008888888888888889</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05333333333333334</v>
+        <v>0.04979253112033195</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1022222222222222</v>
+        <v>0.09958506224066389</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01753202966958867</v>
+        <v>0.01644528779253637</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2016183412002697</v>
+        <v>0.200506008855155</v>
       </c>
       <c r="I19">
-        <v>0.09912339851652056</v>
+        <v>0.1005692599620493</v>
       </c>
       <c r="J19">
-        <v>0.3432231962238705</v>
+        <v>0.3447185325743201</v>
       </c>
       <c r="K19">
-        <v>0.1200269723533378</v>
+        <v>0.1214421252371917</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01618341200269724</v>
+        <v>0.01644528779253637</v>
       </c>
       <c r="N19">
-        <v>0.0006743088334457181</v>
+        <v>0.0006325110689437065</v>
       </c>
       <c r="O19">
-        <v>0.06540795684423466</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1362103843560351</v>
+        <v>0.1347248576850095</v>
       </c>
     </row>
   </sheetData>
